--- a/correlations_with_activeness.xlsx
+++ b/correlations_with_activeness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\20231213_EmoitonSentimentAnalysis\AffectiveStatesInIssueResolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{583C01E5-5FF8-4E73-ABD4-DA20E7B9B082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B799E7E-D43D-46F7-9104-F910AD880CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{7D056AE4-D40C-4FCF-B59B-12BEB7D1AB38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D056AE4-D40C-4FCF-B59B-12BEB7D1AB38}"/>
   </bookViews>
   <sheets>
     <sheet name="correlations_with_activeness" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
   <si>
     <t xml:space="preserve">Estimate </t>
   </si>
@@ -35,114 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">(Intercept)     </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.085598 .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt; 2e-16 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.001539 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000279 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.002174 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000139 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.096595 .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000109 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.50e-13 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.74e-14 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.40e-07 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.060715 .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.08e-08 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.45e-06 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.007424 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.001836 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.005283 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000422 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.76e-10 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.99e-12 ***  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.77e-13 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00396 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00891 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00572 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00280 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.74e-05 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.82e-05 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.99e-12 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.84e-08 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.79e-16 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.86e-10 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.76e-10 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.00185 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  0.01804 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.69e-06 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.28e-13 ***</t>
   </si>
   <si>
     <t>EngPos</t>
@@ -189,6 +81,114 @@
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>1.92e-07 ***</t>
+  </si>
+  <si>
+    <t>2.13e-10 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0140 *  </t>
+  </si>
+  <si>
+    <t>6.01e-09 ***</t>
+  </si>
+  <si>
+    <t>5.04e-05 ***</t>
+  </si>
+  <si>
+    <t>1.21e-05 ***</t>
+  </si>
+  <si>
+    <t>7.48e-08 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.0316 *  </t>
+  </si>
+  <si>
+    <t>9.53e-06 ***</t>
+  </si>
+  <si>
+    <t>1.61e-05 ***</t>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.41e-08 ***</t>
+  </si>
+  <si>
+    <t>0.000168 ***</t>
+  </si>
+  <si>
+    <t>5.57e-09 ***</t>
+  </si>
+  <si>
+    <t>2.24e-06 ***</t>
+  </si>
+  <si>
+    <t>1.26e-05 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.064335 .  </t>
+  </si>
+  <si>
+    <t>2.79e-05 ***</t>
+  </si>
+  <si>
+    <t>1.33e-11 ***</t>
+  </si>
+  <si>
+    <t>0.000299 ***</t>
+  </si>
+  <si>
+    <t>8.27e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002986 ** </t>
+  </si>
+  <si>
+    <t>6.95e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.092975 .  </t>
+  </si>
+  <si>
+    <t>7.63e-06 ***</t>
+  </si>
+  <si>
+    <t>6.03e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00143 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00121 ** </t>
+  </si>
+  <si>
+    <t>1.10e-05 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.05043 .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00475 ** </t>
+  </si>
+  <si>
+    <t>6.04e-08 ***</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -540,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -783,6 +783,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -912,7 +945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -931,22 +964,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -965,6 +998,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1322,24 +1373,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E3D974-204C-483F-B2C3-DA1106C48B9C}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="9" style="7"/>
-    <col min="6" max="6" width="9" style="5"/>
+    <col min="6" max="6" width="19.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -1362,1020 +1413,1158 @@
         <v>4</v>
       </c>
       <c r="C2" s="7">
-        <v>0.25506000000000001</v>
+        <v>1.9035010000000001</v>
       </c>
       <c r="D2" s="7">
-        <v>0.14837</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1.7190000000000001</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>0.16653100000000001</v>
+      </c>
+      <c r="E2" s="18">
+        <v>11.43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7">
-        <v>1.7149999999999999E-2</v>
+        <v>7.4692999999999996E-2</v>
       </c>
       <c r="D3" s="7">
-        <v>1.404E-2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1.2210000000000001</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.22200800000000001</v>
+        <v>1.4345E-2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>5.2069999999999999</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7">
-        <v>0.39981</v>
+        <v>0.400893</v>
       </c>
       <c r="D4" s="7">
-        <v>1.478E-2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>27.045000000000002</v>
+        <v>1.4971999999999999E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>26.777000000000001</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7">
-        <v>-3.492E-2</v>
+        <v>4.7280000000000004E-3</v>
       </c>
       <c r="D5" s="7">
-        <v>1.102E-2</v>
-      </c>
-      <c r="E5" s="7">
-        <v>-3.1669999999999998</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>1.1247999999999999E-2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0.42</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.67420000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7">
-        <v>-3.9269999999999999E-2</v>
+        <v>-6.9791000000000006E-2</v>
       </c>
       <c r="D6" s="7">
-        <v>1.081E-2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>-3.6339999999999999</v>
+        <v>1.0988E-2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>-6.3520000000000003</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7">
-        <v>-3.7499999999999999E-2</v>
+        <v>-3.0665999999999999E-2</v>
       </c>
       <c r="D7" s="7">
-        <v>1.223E-2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>-3.0649999999999999</v>
+        <v>1.2474000000000001E-2</v>
+      </c>
+      <c r="E7" s="18">
+        <v>-2.4580000000000002</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>-4.0710000000000003E-2</v>
+        <v>-6.3527E-2</v>
       </c>
       <c r="D8" s="7">
-        <v>1.068E-2</v>
-      </c>
-      <c r="E8" s="7">
-        <v>-3.81</v>
+        <v>1.0921999999999999E-2</v>
+      </c>
+      <c r="E8" s="18">
+        <v>-5.8159999999999998</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7">
-        <v>-1.711E-2</v>
+        <v>-1.4066E-2</v>
       </c>
       <c r="D9" s="7">
-        <v>1.03E-2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>-1.6619999999999999</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>11</v>
+        <v>1.0659E-2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>-1.32</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.18690000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7">
-        <v>-4.0480000000000002E-2</v>
+        <v>-4.3206000000000001E-2</v>
       </c>
       <c r="D10" s="7">
-        <v>1.0460000000000001E-2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>-3.871</v>
+        <v>1.0659E-2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>-4.0540000000000003</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C11" s="7">
-        <v>-7.8780000000000003E-2</v>
+        <v>-4.7101999999999998E-2</v>
       </c>
       <c r="D11" s="7">
-        <v>1.0659999999999999E-2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>-7.3869999999999996</v>
+        <v>1.0765E-2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>-4.3760000000000003</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7">
-        <v>0.12268</v>
+        <v>6.9412000000000001E-2</v>
       </c>
       <c r="D12" s="7">
-        <v>1.252E-2</v>
-      </c>
-      <c r="E12" s="7">
-        <v>9.8000000000000007</v>
+        <v>1.2904000000000001E-2</v>
+      </c>
+      <c r="E12" s="18">
+        <v>5.3789999999999996</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>0.47696</v>
+        <v>-0.13462199999999999</v>
       </c>
       <c r="D13" s="7">
-        <v>6.268E-2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>7.61</v>
+        <v>6.2633999999999995E-2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>-2.149</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>8.3580000000000002E-2</v>
+        <v>0.25648300000000002</v>
       </c>
       <c r="D14" s="7">
-        <v>1.6879999999999999E-2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.95</v>
+        <v>1.7191999999999999E-2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>14.919</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="11">
-        <v>-0.69559000000000004</v>
-      </c>
-      <c r="D15" s="11">
-        <v>6.3329999999999997E-2</v>
-      </c>
-      <c r="E15" s="11">
-        <v>-10.984</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>6</v>
+      <c r="A15" s="15"/>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7">
+        <v>-0.28574500000000003</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6.4537999999999998E-2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>-4.4279999999999999</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="15"/>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-1.5925400000000001</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3.6584999999999999E-2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>-43.53</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="11">
+        <v>8.9743000000000003E-2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2.0806000000000002E-2</v>
+      </c>
+      <c r="E17" s="19">
+        <v>4.3129999999999997</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="7">
-        <v>1.3870357</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.1197693</v>
-      </c>
-      <c r="E16" s="7">
-        <v>11.581</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.7506699999999999E-2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1.46658E-2</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
       <c r="C18" s="7">
-        <v>0.38090239999999997</v>
+        <v>2.7195040000000001</v>
       </c>
       <c r="D18" s="7">
-        <v>1.6867500000000001E-2</v>
-      </c>
-      <c r="E18" s="7">
-        <v>22.582000000000001</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>6</v>
+        <v>0.133719</v>
+      </c>
+      <c r="E18" s="18">
+        <v>20.337</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C19" s="7">
-        <v>-6.3942799999999994E-2</v>
+        <v>-2.7550000000000001E-3</v>
       </c>
       <c r="D19" s="7">
-        <v>1.14071E-2</v>
-      </c>
-      <c r="E19" s="7">
-        <v>-5.6059999999999999</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>17</v>
+        <v>1.5188E-2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>-0.18099999999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.85606700000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C20" s="7">
-        <v>-5.2033000000000003E-2</v>
+        <v>0.38791599999999998</v>
       </c>
       <c r="D20" s="7">
-        <v>1.12085E-2</v>
-      </c>
-      <c r="E20" s="7">
-        <v>-4.6420000000000003</v>
+        <v>1.72E-2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>22.553999999999998</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C21" s="7">
-        <v>-0.1315461</v>
+        <v>-1.8137E-2</v>
       </c>
       <c r="D21" s="7">
-        <v>1.30528E-2</v>
-      </c>
-      <c r="E21" s="7">
-        <v>-10.077999999999999</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>6</v>
+        <v>1.183E-2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>-1.5329999999999999</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.12522800000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C22" s="7">
-        <v>-7.3229999999999996E-4</v>
+        <v>-6.4713000000000007E-2</v>
       </c>
       <c r="D22" s="7">
-        <v>1.1148699999999999E-2</v>
-      </c>
-      <c r="E22" s="7">
-        <v>-6.6000000000000003E-2</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.94762999999999997</v>
+        <v>1.1409000000000001E-2</v>
+      </c>
+      <c r="E22" s="18">
+        <v>-5.6719999999999997</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C23" s="7">
-        <v>-2.79639E-2</v>
+        <v>-0.14220099999999999</v>
       </c>
       <c r="D23" s="7">
-        <v>1.04452E-2</v>
-      </c>
-      <c r="E23" s="7">
-        <v>-2.677</v>
+        <v>1.3565000000000001E-2</v>
+      </c>
+      <c r="E23" s="18">
+        <v>-10.483000000000001</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>-3.3498899999999998E-2</v>
+        <v>-4.2763000000000002E-2</v>
       </c>
       <c r="D24" s="7">
-        <v>1.0752100000000001E-2</v>
-      </c>
-      <c r="E24" s="7">
-        <v>-3.1160000000000001</v>
+        <v>1.1363E-2</v>
+      </c>
+      <c r="E24" s="18">
+        <v>-3.7629999999999999</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C25" s="7">
-        <v>-3.0949600000000001E-2</v>
+        <v>6.8904000000000007E-2</v>
       </c>
       <c r="D25" s="7">
-        <v>1.1096099999999999E-2</v>
-      </c>
-      <c r="E25" s="7">
-        <v>-2.7890000000000001</v>
+        <v>1.1820000000000001E-2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>5.8289999999999997</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C26" s="7">
-        <v>0.20442650000000001</v>
+        <v>-5.2198000000000001E-2</v>
       </c>
       <c r="D26" s="7">
-        <v>1.3552700000000001E-2</v>
-      </c>
-      <c r="E26" s="7">
-        <v>15.084</v>
+        <v>1.1035E-2</v>
+      </c>
+      <c r="E26" s="18">
+        <v>-4.7300000000000004</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C27" s="7">
-        <v>0.25125910000000001</v>
+        <v>-4.9054E-2</v>
       </c>
       <c r="D27" s="7">
-        <v>7.1259600000000006E-2</v>
-      </c>
-      <c r="E27" s="7">
-        <v>3.5259999999999998</v>
+        <v>1.1233E-2</v>
+      </c>
+      <c r="E27" s="18">
+        <v>-4.367</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C28" s="7">
-        <v>0.12121990000000001</v>
+        <v>0.18945000000000001</v>
       </c>
       <c r="D28" s="7">
-        <v>1.9711599999999999E-2</v>
-      </c>
-      <c r="E28" s="7">
-        <v>6.15</v>
+        <v>1.4350999999999999E-2</v>
+      </c>
+      <c r="E28" s="18">
+        <v>13.201000000000001</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="11">
-        <v>-0.49964540000000002</v>
-      </c>
-      <c r="D29" s="11">
-        <v>7.3405700000000004E-2</v>
-      </c>
-      <c r="E29" s="11">
-        <v>-6.8070000000000004</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>24</v>
+      <c r="A29" s="15"/>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="7">
+        <v>-0.133573</v>
+      </c>
+      <c r="D29" s="7">
+        <v>7.2206999999999993E-2</v>
+      </c>
+      <c r="E29" s="18">
+        <v>-1.85</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
-        <v>3</v>
-      </c>
+      <c r="A30" s="15"/>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C30" s="7">
-        <v>2.0450699999999999</v>
+        <v>0.20430300000000001</v>
       </c>
       <c r="D30" s="7">
-        <v>0.11203</v>
-      </c>
-      <c r="E30" s="7">
-        <v>18.254999999999999</v>
+        <v>2.0660999999999999E-2</v>
+      </c>
+      <c r="E30" s="18">
+        <v>9.8879999999999999</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C31" s="7">
-        <v>2.1669999999999998E-2</v>
+        <v>-0.31292300000000001</v>
       </c>
       <c r="D31" s="7">
-        <v>1.8429999999999998E-2</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.23966000000000001</v>
+        <v>7.4690999999999994E-2</v>
+      </c>
+      <c r="E31" s="18">
+        <v>-4.1900000000000004</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C32" s="7">
-        <v>0.42598000000000003</v>
+        <v>-1.226445</v>
       </c>
       <c r="D32" s="7">
-        <v>2.2069999999999999E-2</v>
-      </c>
-      <c r="E32" s="7">
-        <v>19.303999999999998</v>
+        <v>3.7185999999999997E-2</v>
+      </c>
+      <c r="E32" s="18">
+        <v>-32.981000000000002</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="7">
-        <v>-0.10545</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1.4319999999999999E-2</v>
-      </c>
-      <c r="E33" s="7">
-        <v>-7.3650000000000002</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>25</v>
+      <c r="A33" s="16"/>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.159079</v>
+      </c>
+      <c r="D33" s="11">
+        <v>2.3514E-2</v>
+      </c>
+      <c r="E33" s="19">
+        <v>6.7649999999999997</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="15">
+        <v>3</v>
+      </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C34" s="7">
-        <v>-0.11344</v>
+        <v>3.2079800000000001</v>
       </c>
       <c r="D34" s="7">
-        <v>1.371E-2</v>
-      </c>
-      <c r="E34" s="7">
-        <v>-8.2759999999999998</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>6</v>
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="E34" s="18">
+        <v>24.266999999999999</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C35" s="7">
-        <v>-0.13965</v>
+        <v>3.1150000000000001E-2</v>
       </c>
       <c r="D35" s="7">
-        <v>1.6619999999999999E-2</v>
-      </c>
-      <c r="E35" s="7">
-        <v>-8.4009999999999998</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>6</v>
+        <v>1.9230000000000001E-2</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1.62</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.105268</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C36" s="7">
-        <v>-3.9379999999999998E-2</v>
+        <v>0.37297000000000002</v>
       </c>
       <c r="D36" s="7">
-        <v>1.367E-2</v>
-      </c>
-      <c r="E36" s="7">
-        <v>-2.8809999999999998</v>
+        <v>2.2550000000000001E-2</v>
+      </c>
+      <c r="E36" s="18">
+        <v>16.536999999999999</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C37" s="7">
-        <v>-3.3750000000000002E-2</v>
+        <v>-5.357E-2</v>
       </c>
       <c r="D37" s="7">
-        <v>1.29E-2</v>
-      </c>
-      <c r="E37" s="7">
-        <v>-2.6160000000000001</v>
+        <v>1.481E-2</v>
+      </c>
+      <c r="E37" s="18">
+        <v>-3.6160000000000001</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C38" s="7">
-        <v>-3.6900000000000002E-2</v>
+        <v>-0.14187</v>
       </c>
       <c r="D38" s="7">
-        <v>1.3350000000000001E-2</v>
-      </c>
-      <c r="E38" s="7">
-        <v>-2.7629999999999999</v>
+        <v>1.4019999999999999E-2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>-10.118</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C39" s="7">
-        <v>-3.9050000000000001E-2</v>
+        <v>-0.18976999999999999</v>
       </c>
       <c r="D39" s="7">
-        <v>1.307E-2</v>
-      </c>
-      <c r="E39" s="7">
-        <v>-2.9889999999999999</v>
+        <v>1.7270000000000001E-2</v>
+      </c>
+      <c r="E39" s="18">
+        <v>-10.986000000000001</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>0.26169999999999999</v>
+        <v>-6.93E-2</v>
       </c>
       <c r="D40" s="7">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E40" s="7">
-        <v>15.395</v>
+        <v>1.406E-2</v>
+      </c>
+      <c r="E40" s="18">
+        <v>-4.9290000000000003</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C41" s="7">
-        <v>0.38939000000000001</v>
+        <v>4.5310000000000003E-2</v>
       </c>
       <c r="D41" s="7">
-        <v>9.2840000000000006E-2</v>
-      </c>
-      <c r="E41" s="7">
-        <v>4.194</v>
+        <v>1.5259999999999999E-2</v>
+      </c>
+      <c r="E41" s="18">
+        <v>2.9689999999999999</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C42" s="7">
-        <v>0.11684</v>
+        <v>-6.8220000000000003E-2</v>
       </c>
       <c r="D42" s="7">
-        <v>2.726E-2</v>
-      </c>
-      <c r="E42" s="7">
-        <v>4.2859999999999996</v>
+        <v>1.375E-2</v>
+      </c>
+      <c r="E42" s="18">
+        <v>-4.9630000000000001</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="11">
-        <v>-0.66169</v>
-      </c>
-      <c r="D43" s="11">
-        <v>9.6759999999999999E-2</v>
-      </c>
-      <c r="E43" s="11">
-        <v>-6.8390000000000004</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>32</v>
+      <c r="A43" s="15"/>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7">
+        <v>-2.315E-2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1.3780000000000001E-2</v>
+      </c>
+      <c r="E43" s="18">
+        <v>-1.68</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
-        <v>4</v>
-      </c>
+      <c r="A44" s="15"/>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C44" s="7">
-        <v>2.5740729999999998</v>
+        <v>0.21279999999999999</v>
       </c>
       <c r="D44" s="7">
-        <v>0.115129</v>
-      </c>
-      <c r="E44" s="7">
-        <v>22.358000000000001</v>
+        <v>1.8239999999999999E-2</v>
+      </c>
+      <c r="E44" s="18">
+        <v>11.664</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C45" s="7">
-        <v>-3.2351999999999999E-2</v>
+        <v>0.11655</v>
       </c>
       <c r="D45" s="7">
-        <v>2.2259999999999999E-2</v>
-      </c>
-      <c r="E45" s="7">
-        <v>-1.4530000000000001</v>
+        <v>9.1170000000000001E-2</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1.278</v>
       </c>
       <c r="F45" s="4">
-        <v>0.14610999999999999</v>
+        <v>0.20111200000000001</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C46" s="7">
-        <v>0.44226799999999999</v>
+        <v>0.12989999999999999</v>
       </c>
       <c r="D46" s="7">
-        <v>2.7029000000000001E-2</v>
-      </c>
-      <c r="E46" s="7">
-        <v>16.363</v>
+        <v>2.903E-2</v>
+      </c>
+      <c r="E46" s="18">
+        <v>4.4749999999999996</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C47" s="7">
-        <v>-9.2852000000000004E-2</v>
+        <v>-0.48036000000000001</v>
       </c>
       <c r="D47" s="7">
-        <v>1.7014999999999999E-2</v>
-      </c>
-      <c r="E47" s="7">
-        <v>-5.4569999999999999</v>
+        <v>9.6259999999999998E-2</v>
+      </c>
+      <c r="E47" s="18">
+        <v>-4.99</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C48" s="7">
-        <v>-0.13209899999999999</v>
+        <v>-0.95711000000000002</v>
       </c>
       <c r="D48" s="7">
-        <v>1.6395E-2</v>
-      </c>
-      <c r="E48" s="7">
-        <v>-8.0570000000000004</v>
+        <v>4.6030000000000001E-2</v>
+      </c>
+      <c r="E48" s="18">
+        <v>-20.795000000000002</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="7">
-        <v>-0.12696299999999999</v>
-      </c>
-      <c r="D49" s="7">
-        <v>2.0133999999999999E-2</v>
-      </c>
-      <c r="E49" s="7">
-        <v>-6.306</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>35</v>
+      <c r="A49" s="16"/>
+      <c r="B49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="11">
+        <v>2.2669999999999999E-2</v>
+      </c>
+      <c r="D49" s="11">
+        <v>2.9960000000000001E-2</v>
+      </c>
+      <c r="E49" s="19">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0.44923000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
+      <c r="A50" s="22">
+        <v>4</v>
+      </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="C50" s="7">
-        <v>-0.101331</v>
+        <v>3.705165</v>
       </c>
       <c r="D50" s="7">
-        <v>1.6055E-2</v>
-      </c>
-      <c r="E50" s="7">
-        <v>-6.3120000000000003</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>36</v>
+        <v>0.126667</v>
+      </c>
+      <c r="E50" s="18">
+        <v>29.251000000000001</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C51" s="7">
-        <v>-4.6788000000000003E-2</v>
+        <v>1.4580000000000001E-3</v>
       </c>
       <c r="D51" s="7">
-        <v>1.5027E-2</v>
-      </c>
-      <c r="E51" s="7">
-        <v>-3.1139999999999999</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>37</v>
+        <v>2.3098E-2</v>
+      </c>
+      <c r="E51" s="18">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.94964999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C52" s="7">
-        <v>-3.6496000000000001E-2</v>
+        <v>0.40129900000000002</v>
       </c>
       <c r="D52" s="7">
-        <v>1.5433000000000001E-2</v>
-      </c>
-      <c r="E52" s="7">
-        <v>-2.3650000000000002</v>
+        <v>2.845E-2</v>
+      </c>
+      <c r="E52" s="18">
+        <v>14.105</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="7">
+        <v>-5.6575E-2</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1.7748E-2</v>
+      </c>
+      <c r="E53" s="18">
+        <v>-3.1880000000000002</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C53" s="7">
-        <v>-2.1649999999999998E-3</v>
-      </c>
-      <c r="D53" s="7">
-        <v>1.4137E-2</v>
-      </c>
-      <c r="E53" s="7">
-        <v>-0.153</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0.87829000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C54" s="7">
-        <v>0.25111800000000001</v>
+        <v>-0.18879899999999999</v>
       </c>
       <c r="D54" s="7">
-        <v>2.1350999999999998E-2</v>
-      </c>
-      <c r="E54" s="7">
-        <v>11.760999999999999</v>
+        <v>1.6660999999999999E-2</v>
+      </c>
+      <c r="E54" s="18">
+        <v>-11.332000000000001</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C55" s="7">
-        <v>0.54858300000000004</v>
+        <v>-0.22000600000000001</v>
       </c>
       <c r="D55" s="7">
-        <v>0.114582</v>
-      </c>
-      <c r="E55" s="7">
-        <v>4.7880000000000003</v>
+        <v>2.0686E-2</v>
+      </c>
+      <c r="E55" s="18">
+        <v>-10.635999999999999</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="7">
+        <v>-0.13694500000000001</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1.6597000000000001E-2</v>
+      </c>
+      <c r="E56" s="18">
+        <v>-8.2509999999999994</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="7">
+        <v>5.4251000000000001E-2</v>
+      </c>
+      <c r="D57" s="7">
+        <v>1.6761999999999999E-2</v>
+      </c>
+      <c r="E57" s="18">
+        <v>3.2370000000000001</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="7">
+        <v>-6.9974999999999996E-2</v>
+      </c>
+      <c r="D58" s="7">
+        <v>1.5914999999999999E-2</v>
+      </c>
+      <c r="E58" s="18">
+        <v>-4.3970000000000002</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="7">
+        <v>3.0466E-2</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1.5573E-2</v>
+      </c>
+      <c r="E59" s="18">
+        <v>1.956</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="7">
-        <v>4.5018000000000002E-2</v>
-      </c>
-      <c r="D56" s="7">
-        <v>3.7297999999999998E-2</v>
-      </c>
-      <c r="E56" s="7">
-        <v>1.2070000000000001</v>
-      </c>
-      <c r="F56" s="4">
-        <v>0.22744</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="8" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.200096</v>
+      </c>
+      <c r="D60" s="7">
+        <v>2.2658999999999999E-2</v>
+      </c>
+      <c r="E60" s="18">
+        <v>8.8309999999999995</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="15"/>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="7">
+        <v>0.31679800000000002</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0.112202</v>
+      </c>
+      <c r="E61" s="18">
+        <v>2.823</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="9">
-        <v>-0.86835300000000004</v>
-      </c>
-      <c r="D57" s="9">
-        <v>0.11722</v>
-      </c>
-      <c r="E57" s="9">
-        <v>-7.4080000000000004</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>40</v>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="15"/>
+      <c r="C62" s="7">
+        <v>1.8797999999999999E-2</v>
+      </c>
+      <c r="D62" s="7">
+        <v>4.0092999999999997E-2</v>
+      </c>
+      <c r="E62" s="18">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.63917000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="15"/>
+      <c r="C63" s="7">
+        <v>-0.65211600000000003</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0.12037200000000001</v>
+      </c>
+      <c r="E63" s="18">
+        <v>-5.4180000000000001</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="15"/>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="7">
+        <v>-0.92540199999999995</v>
+      </c>
+      <c r="D64" s="7">
+        <v>5.6897999999999997E-2</v>
+      </c>
+      <c r="E64" s="18">
+        <v>-16.263999999999999</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="9">
+        <v>1.059E-2</v>
+      </c>
+      <c r="D65" s="9">
+        <v>3.9282999999999998E-2</v>
+      </c>
+      <c r="E65" s="23">
+        <v>0.27</v>
+      </c>
+      <c r="F65" s="10">
+        <v>0.78749000000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="A30:A43"/>
-    <mergeCell ref="A44:A57"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A50:A65"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
